--- a/server/LISTAS/ma/CAJAS PARA ENRROLLADOR.xlsx
+++ b/server/LISTAS/ma/CAJAS PARA ENRROLLADOR.xlsx
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>

--- a/server/LISTAS/ma/CAJAS PARA ENRROLLADOR.xlsx
+++ b/server/LISTAS/ma/CAJAS PARA ENRROLLADOR.xlsx
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>

--- a/server/LISTAS/ma/CAJAS PARA ENRROLLADOR.xlsx
+++ b/server/LISTAS/ma/CAJAS PARA ENRROLLADOR.xlsx
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="C30" s="21" t="n"/>
       <c r="D30" s="16" t="n">
-        <v>338</v>
+        <v>570</v>
       </c>
       <c r="E30" s="3" t="n"/>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="C31" s="21" t="n"/>
       <c r="D31" s="8" t="n">
-        <v>405</v>
+        <v>690</v>
       </c>
       <c r="E31" s="3" t="n"/>
     </row>
@@ -956,13 +956,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/CAJAS PARA ENRROLLADOR.xlsx
+++ b/server/LISTAS/ma/CAJAS PARA ENRROLLADOR.xlsx
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>

--- a/server/LISTAS/ma/CAJAS PARA ENRROLLADOR.xlsx
+++ b/server/LISTAS/ma/CAJAS PARA ENRROLLADOR.xlsx
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -956,13 +956,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/CAJAS PARA ENRROLLADOR.xlsx
+++ b/server/LISTAS/ma/CAJAS PARA ENRROLLADOR.xlsx
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -956,13 +956,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/CAJAS PARA ENRROLLADOR.xlsx
+++ b/server/LISTAS/ma/CAJAS PARA ENRROLLADOR.xlsx
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -956,13 +956,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/CAJAS PARA ENRROLLADOR.xlsx
+++ b/server/LISTAS/ma/CAJAS PARA ENRROLLADOR.xlsx
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="C30" s="21" t="n"/>
       <c r="D30" s="16" t="n">
-        <v>338</v>
+        <v>799</v>
       </c>
       <c r="E30" s="3" t="n"/>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="C31" s="21" t="n"/>
       <c r="D31" s="8" t="n">
-        <v>405</v>
+        <v>967</v>
       </c>
       <c r="E31" s="3" t="n"/>
     </row>
@@ -956,13 +956,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
